--- a/backend/data.xlsx
+++ b/backend/data.xlsx
@@ -481,37 +481,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS-1</t>
+          <t>DS-38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Baud Rate Test</t>
+          <t>Debug Interface Check</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UART</t>
+          <t>JTAG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -523,37 +523,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS-2</t>
+          <t>DS-37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parity Check Test</t>
+          <t xml:space="preserve"> Boundary Scan Test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UART</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,37 +565,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS-5</t>
+          <t>DS-36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Clock synchronisation Test</t>
+          <t>Slave Response Time check</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -607,84 +607,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS-14</t>
+          <t>DS-35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bus Arbitration Test</t>
+          <t>Bus Voltage Measurement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>To Do</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Unresolved</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS-28</t>
+          <t>DS-34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Link stability analysis</t>
+          <t>Frame error Analysis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PCIe</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Unresolved</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,27 +733,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS-34</t>
+          <t>DS-32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Frame error Analysis</t>
+          <t>Auto-negotiation Test</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -775,17 +775,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS-38</t>
+          <t>DS-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Debug Interface Check</t>
+          <t>Latency Measurement</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JTAG</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -817,37 +817,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS-4</t>
+          <t>DS-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Loopback Test</t>
+          <t>Packet Intergrity Analysis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UART</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -859,17 +859,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS-11</t>
+          <t>DS-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pull-up register Validation</t>
+          <t>Link stability analysis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -879,39 +879,39 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>I2C</t>
+          <t>PCIe</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Unresolved</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS-12</t>
+          <t>DS-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Clock Streching Test</t>
+          <t>Throughput measurement</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I2C</t>
+          <t>PCIe</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -943,37 +943,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS-13</t>
+          <t>DS-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Address Conflict detection</t>
+          <t xml:space="preserve"> Error correction code check</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>PCIe</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,27 +985,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS-17</t>
+          <t>DS-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Error Frame Analysis</t>
+          <t>Hot Plug Detection</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1027,32 +1027,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DS-20</t>
+          <t>DS-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Node communication Verification</t>
+          <t>Power consumption Analysis</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>To Do</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1062,24 +1062,24 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Unresolved</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS-21</t>
+          <t>DS-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>End point communication</t>
+          <t>Data Transfer Test Communication</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS-22</t>
+          <t>DS-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Data Transfer Test Communication</t>
+          <t>End point communication</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1153,32 +1153,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS-23</t>
+          <t>DS-20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Power consumption Analysis</t>
+          <t>Node communication Verification</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1188,44 +1188,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Unresolved</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS-24</t>
+          <t>DS-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hot Plug Detection</t>
+          <t>Bus Load Measurement</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1237,37 +1237,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS-29</t>
+          <t>DS-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Packet Intergrity Analysis</t>
+          <t>Bit Timing Test</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ethernet</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1279,32 +1279,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS-35</t>
+          <t>DS-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bus Voltage Measurement</t>
+          <t>Error Frame Analysis</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1314,44 +1314,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Unresolved</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS-36</t>
+          <t>DS-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Slave Response Time check</t>
+          <t>Multimaster Address Assign test</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1363,27 +1363,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS-37</t>
+          <t>DS-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boundary Scan Test</t>
+          <t>Dynamic Address Validation Test</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ethernet</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1405,37 +1405,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS-7</t>
+          <t>DS-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Salve select Validation</t>
+          <t>Bus Arbitration Test</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1447,64 +1447,64 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS-8</t>
+          <t>DS-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Signal Noise Analaysis</t>
+          <t>Address Conflict detection</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Unresolved</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS-10</t>
+          <t>DS-12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bus Speed Analysis</t>
+          <t>Clock Streching Test</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1531,37 +1531,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS-15</t>
+          <t>DS-11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dynamic Address Validation Test</t>
+          <t>Pull-up register Validation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>I2C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1573,37 +1573,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS-16</t>
+          <t>DS-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Multimaster Address Assign test</t>
+          <t>Bus Speed Analysis</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>I2C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1615,59 +1615,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DS-18</t>
+          <t>DS-8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bit Timing Test</t>
+          <t>Signal Noise Analaysis</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Unresolved</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DS-32</t>
+          <t>DS-7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Auto-negotiation Test</t>
+          <t>Salve select Validation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1677,17 +1677,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ethernet</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1699,37 +1699,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DS-19</t>
+          <t>DS-5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bus Load Measurement</t>
+          <t>Clock synchronisation Test</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1741,27 +1741,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS-26</t>
+          <t>DS-4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Error correction code check</t>
+          <t>Loopback Test</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PCIe</t>
+          <t>UART</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1783,27 +1783,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS-27</t>
+          <t>DS-2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Throughput measurement</t>
+          <t>Parity Check Test</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PCIe</t>
+          <t>UART</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1825,37 +1825,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS-30</t>
+          <t>DS-1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DS_issues</t>
+          <t>overall_status_filter_Target</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Latency Measurement</t>
+          <t>Baud Rate Test</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ethernet</t>
+          <t>UART</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2138,27 +2138,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DS-24</t>
+          <t>DS-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hot Plug Detection</t>
+          <t xml:space="preserve"> Error correction code check</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>PCIe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2180,22 +2180,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS-22</t>
+          <t>DS-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Data Transfer Test Communication</t>
+          <t>Hot Plug Detection</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2222,17 +2222,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS-21</t>
+          <t>DS-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>End point communication</t>
+          <t>Data Transfer Test Communication</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2264,27 +2264,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS-20</t>
+          <t>DS-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Node communication Verification</t>
+          <t>End point communication</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2306,22 +2306,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS-17</t>
+          <t>DS-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Error Frame Analysis</t>
+          <t>Node communication Verification</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2348,27 +2348,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS-16</t>
+          <t>DS-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Multimaster Address Assign test</t>
+          <t>Error Frame Analysis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2390,22 +2390,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS-14</t>
+          <t>DS-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bus Arbitration Test</t>
+          <t>Multimaster Address Assign test</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2432,27 +2432,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS-11</t>
+          <t>DS-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pull-up register Validation</t>
+          <t>Bus Arbitration Test</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I2C</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2474,27 +2474,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DS-5</t>
+          <t>DS-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Clock synchronisation Test</t>
+          <t>Pull-up register Validation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>I2C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2516,27 +2516,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS-2</t>
+          <t>DS-5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parity Check Test</t>
+          <t>Clock synchronisation Test</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UART</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS-1</t>
+          <t>DS-2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ovr_Pass_Filter</t>
+          <t>overall_status_filter_Pass</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Baud Rate Test</t>
+          <t>Parity Check Test</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2787,27 +2787,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS-26</t>
+          <t>DS-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Error correction code check</t>
+          <t>Bus Load Measurement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PCIe</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2829,22 +2829,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS-19</t>
+          <t>DS-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bus Load Measurement</t>
+          <t>Bit Timing Test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2871,27 +2871,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DS-18</t>
+          <t>DS-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bit Timing Test</t>
+          <t>Dynamic Address Validation Test</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>I3C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2913,22 +2913,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS-15</t>
+          <t>DS-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dynamic Address Validation Test</t>
+          <t>Address Conflict detection</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2955,27 +2955,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS-13</t>
+          <t>DS-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Address Conflict detection</t>
+          <t>Clock Streching Test</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JTAES</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I3C</t>
+          <t>I2C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2997,22 +2997,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS-12</t>
+          <t>DS-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Clock Streching Test</t>
+          <t>Bus Speed Analysis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3039,27 +3039,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS-10</t>
+          <t>DS-7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bus Speed Analysis</t>
+          <t>Salve select Validation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JTAMP</t>
+          <t>SVB</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>I2C</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3081,27 +3081,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS-7</t>
+          <t>DS-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Salve select Validation</t>
+          <t>Loopback Test</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SVB</t>
+          <t>JTAEN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>UART</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3123,22 +3123,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS-4</t>
+          <t>DS-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ovr_Fail_Filter</t>
+          <t>overall_status_filter_Fail</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Loopback Test</t>
+          <t>Baud Rate Test</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JTAEN</t>
+          <t>JTAMP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3173,7 +3173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ovr_ToDo_Filter</t>
+          <t>overall_status_filter_Unresolved</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ovr_ToDo_Filter</t>
+          <t>overall_status_filter_Unresolved</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3310,40 +3310,124 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>DS-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>overall_status_filter_Unresolved</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Link stability analysis</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JTAEN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PCIe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Unresolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>DS-23</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ovr_ToDo_Filter</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>overall_status_filter_Unresolved</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Power consumption Analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>SVB</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>To Do</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2025-05-31</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Unresolved</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS-8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>overall_status_filter_Unresolved</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Signal Noise Analaysis</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SVB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Unresolved</t>
         </is>
